--- a/data/trans_camb/BARTHEL_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,79; 7,19</t>
+          <t>-17,5; 7,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 10,08</t>
+          <t>-7,29; 9,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 9,5</t>
+          <t>-5,82; 8,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 11,92</t>
+          <t>-18,67; 13,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 13,41</t>
+          <t>-12,32; 15,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 15,47</t>
+          <t>-8,49; 15,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 6,37</t>
+          <t>-12,77; 5,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 7,82</t>
+          <t>-6,47; 8,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 7,76</t>
+          <t>-5,17; 6,99</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 7,84</t>
+          <t>-18,47; 7,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 11,52</t>
+          <t>-7,53; 10,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 10,92</t>
+          <t>-5,91; 10,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,14; 13,66</t>
+          <t>-19,75; 15,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 16,0</t>
+          <t>-13,24; 18,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 20,19</t>
+          <t>-8,68; 19,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 7,15</t>
+          <t>-13,41; 6,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 8,82</t>
+          <t>-6,7; 8,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 8,83</t>
+          <t>-5,29; 7,88</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,69; -0,26</t>
+          <t>-20,5; -0,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,48; -4,36</t>
+          <t>-22,19; -3,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,93; -0,1</t>
+          <t>-11,14; 0,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,74; 32,34</t>
+          <t>-22,17; 34,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-39,06; 27,93</t>
+          <t>-40,86; 23,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 37,93</t>
+          <t>-9,29; 38,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 4,11</t>
+          <t>-16,3; 4,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,12; -0,36</t>
+          <t>-22,54; -0,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 5,16</t>
+          <t>-8,77; 5,54</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,25; -0,29</t>
+          <t>-20,98; -0,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,12; -4,67</t>
+          <t>-22,62; -3,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,19; -0,15</t>
+          <t>-11,24; 0,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,38; 55,55</t>
+          <t>-24,26; 61,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,85; 43,74</t>
+          <t>-47,76; 33,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 73,3</t>
+          <t>-9,62; 73,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 4,2</t>
+          <t>-17,05; 4,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,57; -0,71</t>
+          <t>-23,43; -0,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 5,82</t>
+          <t>-9,06; 6,28</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 8,03</t>
+          <t>-7,89; 8,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 6,53</t>
+          <t>-8,3; 7,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 4,71</t>
+          <t>-12,25; 3,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 19,41</t>
+          <t>-21,37; 19,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 23,76</t>
+          <t>-14,62; 22,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,2; 19,28</t>
+          <t>-17,38; 19,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 7,61</t>
+          <t>-10,0; 5,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 8,05</t>
+          <t>-7,16; 7,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 3,8</t>
+          <t>-11,78; 3,95</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 9,24</t>
+          <t>-8,49; 9,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 7,49</t>
+          <t>-8,69; 8,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 5,1</t>
+          <t>-12,77; 4,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,87; 28,52</t>
+          <t>-23,1; 30,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 38,45</t>
+          <t>-16,17; 33,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,85; 29,35</t>
+          <t>-19,05; 31,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 9,28</t>
+          <t>-10,82; 7,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 9,69</t>
+          <t>-7,77; 9,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 4,48</t>
+          <t>-12,58; 4,8</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-19,6; -6,0</t>
+          <t>-19,23; -5,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 3,33</t>
+          <t>-7,26; 2,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,87; -4,59</t>
+          <t>-14,35; -3,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-26,78; -2,63</t>
+          <t>-27,73; -2,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-24,53; -1,38</t>
+          <t>-23,45; -2,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 14,06</t>
+          <t>-9,51; 16,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-18,74; -7,12</t>
+          <t>-19,05; -7,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 0,09</t>
+          <t>-10,58; -0,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 7,08</t>
+          <t>-10,15; 6,85</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,35; -6,65</t>
+          <t>-20,72; -6,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 3,7</t>
+          <t>-7,7; 3,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,11; -5,31</t>
+          <t>-15,34; -4,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-29,08; -3,23</t>
+          <t>-29,57; -2,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,45; -1,95</t>
+          <t>-24,82; -2,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 17,3</t>
+          <t>-10,25; 20,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,33; -8,16</t>
+          <t>-20,47; -8,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 0,13</t>
+          <t>-11,29; -0,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 8,07</t>
+          <t>-11,03; 7,77</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 10,36</t>
+          <t>-12,98; 9,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 5,47</t>
+          <t>-17,2; 4,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 11,51</t>
+          <t>-10,63; 9,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-25,14; -3,93</t>
+          <t>-24,86; -3,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 7,42</t>
+          <t>-13,74; 8,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 0,44</t>
+          <t>-17,74; 1,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-19,13; -1,94</t>
+          <t>-18,95; -2,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 4,02</t>
+          <t>-11,21; 5,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 0,7</t>
+          <t>-13,8; 0,8</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 13,55</t>
+          <t>-13,91; 11,76</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 6,61</t>
+          <t>-18,25; 5,7</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 14,94</t>
+          <t>-11,33; 11,56</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-29,62; -5,36</t>
+          <t>-29,31; -4,42</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 9,88</t>
+          <t>-16,15; 10,8</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,84; 0,27</t>
+          <t>-20,34; 1,55</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-22,24; -2,91</t>
+          <t>-21,62; -2,83</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 5,16</t>
+          <t>-12,75; 7,24</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 0,9</t>
+          <t>-15,8; 1,13</t>
         </is>
       </c>
     </row>
@@ -1775,37 +1775,37 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-69,68; 0,0</t>
+          <t>-83,45; 0,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,06; -6,05</t>
+          <t>-17,13; -5,8</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-16,21; -4,6</t>
+          <t>-15,93; -4,66</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-18,07; -7,89</t>
+          <t>-18,0; -8,55</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-16,88; -5,8</t>
+          <t>-17,1; -6,02</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-16,17; -4,65</t>
+          <t>-15,78; -4,51</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-18,55; -8,13</t>
+          <t>-18,52; -8,52</t>
         </is>
       </c>
     </row>
@@ -1881,37 +1881,37 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-69,68; 0,0</t>
+          <t>-83,45; 0,0</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-19,33; -7,19</t>
+          <t>-19,44; -6,85</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-18,3; -5,5</t>
+          <t>-17,94; -5,51</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-20,3; -9,52</t>
+          <t>-20,34; -10,05</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-19,06; -6,81</t>
+          <t>-19,13; -7,14</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-18,23; -5,47</t>
+          <t>-17,8; -5,29</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-20,87; -9,67</t>
+          <t>-20,86; -10,12</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-10,92; -3,02</t>
+          <t>-10,89; -3,0</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,25; -0,66</t>
+          <t>-7,14; -0,42</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-7,95; -1,9</t>
+          <t>-7,97; -1,88</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-16,63; -8,16</t>
+          <t>-16,62; -7,64</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-12,93; -4,16</t>
+          <t>-12,7; -3,83</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 3,72</t>
+          <t>-10,64; 4,34</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-13,21; -7,01</t>
+          <t>-12,95; -7,2</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-9,26; -3,48</t>
+          <t>-9,32; -3,55</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 1,08</t>
+          <t>-8,39; 0,84</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-11,68; -3,31</t>
+          <t>-11,64; -3,27</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-7,81; -0,74</t>
+          <t>-7,66; -0,51</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-8,53; -2,09</t>
+          <t>-8,6; -2,13</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-18,78; -9,66</t>
+          <t>-18,86; -9,17</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-14,68; -4,92</t>
+          <t>-14,48; -4,56</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 4,41</t>
+          <t>-12,2; 5,11</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-14,77; -7,95</t>
+          <t>-14,4; -8,25</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-10,32; -3,9</t>
+          <t>-10,41; -4,06</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 1,35</t>
+          <t>-9,32; 1,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/BARTHEL_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
